--- a/Outputs/1. Budget/Output Files/1500000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_7_29.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2265351.362179555</v>
+        <v>2261190.58501189</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095106</v>
+        <v>806345.882709509</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>254.255467592219</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>249.4015919805161</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>115.9118647420297</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>208.4651916338507</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>331.2226660051214</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>54.17431468188809</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>323.1159807549465</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,10 +1192,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>313.2070399508092</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15.67129869336576</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>168.7756050755991</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>5.417911179179632</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.3877245673313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>74.75769145492404</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>6.055901306634675</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>79.58544726978076</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>55.44583328851225</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>196.8122641154715</v>
       </c>
       <c r="V22" t="n">
-        <v>185.6152590876034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>31.80684691296301</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>52.74455946606868</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>104.9250991261854</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>82.70057996958667</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>25.38552364629703</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>215.00112184206</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.42104802294</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>68.59371373186862</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3246,10 +3246,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>99.61671467937113</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292603</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>11.63308725914808</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>89.42695042856099</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292599</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589021</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>165.6570697579674</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.71455343339082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>84.69473660442802</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2.15336724612825</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>174.1585076791646</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>135.0648019014552</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.182375355301</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.182375355301</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1679.782215419422</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810048</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810048</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810048</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810048</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810048</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.349585887292</v>
+        <v>1310.651480925462</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.349585887292</v>
+        <v>941.6889639850508</v>
       </c>
       <c r="D5" t="n">
-        <v>1170.083887280542</v>
+        <v>941.6889639850508</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.9007113868065</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.349585887292</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810045</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810045</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810045</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810045</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>268.535689181137</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>268.535689181137</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1695.806495672433</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1695.806495672433</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.540797065682</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>951.7525444674379</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224074</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="X8" t="n">
-        <v>1695.806495672433</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y8" t="n">
-        <v>1695.806495672433</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="W10" t="n">
-        <v>224.4233909876363</v>
+        <v>290.565155603658</v>
       </c>
       <c r="X10" t="n">
-        <v>224.4233909876363</v>
+        <v>290.565155603658</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>69.77257646012785</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,52 +5041,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.7495048756253</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="C13" t="n">
-        <v>803.8133219477185</v>
+        <v>399.0634049978502</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>248.9467655855144</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>101.0336720031213</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>101.0336720031213</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>101.0336720031213</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>101.0336720031213</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861856</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963839</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y13" t="n">
-        <v>972.7495048756253</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
@@ -5275,55 +5275,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1741.136558882383</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2274.668463554307</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780954</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>171.0738540998329</v>
+        <v>714.8612091800761</v>
       </c>
       <c r="C16" t="n">
-        <v>171.0738540998329</v>
+        <v>545.9250262521692</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>395.8083868398335</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>247.8952932574404</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>247.8952932574404</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5469,19 +5469,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5512,55 +5512,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.117834600129</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>590.1253288168953</v>
+        <v>567.9454261809101</v>
       </c>
       <c r="C19" t="n">
-        <v>421.1891458889884</v>
+        <v>399.0092432530032</v>
       </c>
       <c r="D19" t="n">
-        <v>340.7998052124422</v>
+        <v>248.8926038406675</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>248.8926038406675</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>248.8926038406675</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V19" t="n">
-        <v>1509.973093725643</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.555923688682</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X19" t="n">
-        <v>992.5663727906651</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y19" t="n">
-        <v>771.773793647135</v>
+        <v>749.5938910111498</v>
       </c>
     </row>
     <row r="20">
@@ -5749,7 +5749,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5758,22 +5758,22 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195857</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N20" t="n">
-        <v>2762.028521254639</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906984</v>
+        <v>4055.47777398904</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4450.252140346218</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4698.5385021019</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193591</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320245</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.9597618327374</v>
+        <v>560.8310435707792</v>
       </c>
       <c r="C22" t="n">
-        <v>784.0235789048305</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9069394924948</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E22" t="n">
-        <v>485.9938459101016</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1445.946126648453</v>
       </c>
       <c r="V22" t="n">
-        <v>1355.400805806507</v>
+        <v>1191.261638442566</v>
       </c>
       <c r="W22" t="n">
-        <v>1355.400805806507</v>
+        <v>1191.261638442566</v>
       </c>
       <c r="X22" t="n">
-        <v>1355.400805806507</v>
+        <v>963.2720875445491</v>
       </c>
       <c r="Y22" t="n">
-        <v>1134.608226662977</v>
+        <v>742.479508401019</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5986,49 +5986,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2628.734306600803</v>
+        <v>2383.057343890768</v>
       </c>
       <c r="N23" t="n">
-        <v>3175.513123659585</v>
+        <v>3362.809616117415</v>
       </c>
       <c r="O23" t="n">
-        <v>4055.47777398904</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P23" t="n">
-        <v>4450.252140346218</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320243</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691.980755747597</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C25" t="n">
-        <v>523.0445728196901</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D25" t="n">
-        <v>372.9279334073543</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>225.0148398249612</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1903.066133310695</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1903.066133310695</v>
       </c>
       <c r="T25" t="n">
-        <v>1866.513008862232</v>
+        <v>1903.066133310695</v>
       </c>
       <c r="U25" t="n">
-        <v>1866.513008862232</v>
+        <v>1903.066133310695</v>
       </c>
       <c r="V25" t="n">
-        <v>1611.828520656345</v>
+        <v>1648.381645104808</v>
       </c>
       <c r="W25" t="n">
-        <v>1322.411350619384</v>
+        <v>1358.964475067847</v>
       </c>
       <c r="X25" t="n">
-        <v>1094.421799721367</v>
+        <v>1130.97492416983</v>
       </c>
       <c r="Y25" t="n">
-        <v>873.6292205778367</v>
+        <v>910.1823450263</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K26" t="n">
-        <v>654.3809594856821</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L26" t="n">
-        <v>1518.899775139037</v>
+        <v>1518.899775139036</v>
       </c>
       <c r="M26" t="n">
         <v>2497.450077968865</v>
@@ -6250,28 +6250,28 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6317,40 +6317,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3636.437342080498</v>
+        <v>3774.668018147755</v>
       </c>
       <c r="C28" t="n">
-        <v>3467.501159152591</v>
+        <v>3605.731835219848</v>
       </c>
       <c r="D28" t="n">
-        <v>3317.384519740256</v>
+        <v>3455.615195807512</v>
       </c>
       <c r="E28" t="n">
-        <v>3169.471426157862</v>
+        <v>3307.702102225119</v>
       </c>
       <c r="F28" t="n">
-        <v>3063.486477545554</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545554</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I28" t="n">
         <v>2917.269290763412</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="T28" t="n">
-        <v>4556.285106989246</v>
+        <v>4694.515783056502</v>
       </c>
       <c r="U28" t="n">
-        <v>4556.285106989246</v>
+        <v>4694.515783056502</v>
       </c>
       <c r="V28" t="n">
-        <v>4556.285106989246</v>
+        <v>4694.515783056502</v>
       </c>
       <c r="W28" t="n">
-        <v>4266.867936952285</v>
+        <v>4405.098613019542</v>
       </c>
       <c r="X28" t="n">
-        <v>4038.878386054268</v>
+        <v>4177.109062121524</v>
       </c>
       <c r="Y28" t="n">
-        <v>3818.085806910738</v>
+        <v>3956.316482977994</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,10 +6448,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6460,55 +6460,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814246</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644074</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870721</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>508.0400813400983</v>
+        <v>435.7957616486535</v>
       </c>
       <c r="C31" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D31" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E31" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431757</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.6435265574</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V31" t="n">
-        <v>1355.6435265574</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W31" t="n">
-        <v>1138.470676211885</v>
+        <v>1066.226356520441</v>
       </c>
       <c r="X31" t="n">
-        <v>910.4811253138681</v>
+        <v>838.2368056224234</v>
       </c>
       <c r="Y31" t="n">
-        <v>689.688546170338</v>
+        <v>617.4442264788933</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972662</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175503</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.59632740215</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.39320666029</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3475.404938850409</v>
+        <v>3303.405146800852</v>
       </c>
       <c r="C34" t="n">
-        <v>3475.404938850409</v>
+        <v>3134.468963872945</v>
       </c>
       <c r="D34" t="n">
-        <v>3475.404938850409</v>
+        <v>3134.468963872945</v>
       </c>
       <c r="E34" t="n">
-        <v>3475.404938850409</v>
+        <v>2986.555870290552</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.51499135249</v>
+        <v>2986.555870290552</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727209</v>
+        <v>2986.555870290552</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945066</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I34" t="n">
         <v>2917.269290763412</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.7687655736</v>
+        <v>4364.599222816073</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699243</v>
+        <v>4075.496355941717</v>
       </c>
       <c r="V34" t="n">
-        <v>3885.042954578666</v>
+        <v>3820.81186773583</v>
       </c>
       <c r="W34" t="n">
-        <v>3885.042954578666</v>
+        <v>3531.394697698869</v>
       </c>
       <c r="X34" t="n">
-        <v>3657.053403680649</v>
+        <v>3303.405146800852</v>
       </c>
       <c r="Y34" t="n">
-        <v>3657.053403680649</v>
+        <v>3303.405146800852</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.715908442899</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>2730.494725501681</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O35" t="n">
         <v>3547.201365906985</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7019,7 +7019,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320243</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3351.233987498254</v>
+        <v>3509.874528187223</v>
       </c>
       <c r="C37" t="n">
-        <v>3182.297804570348</v>
+        <v>3340.938345259317</v>
       </c>
       <c r="D37" t="n">
-        <v>3182.297804570348</v>
+        <v>3340.938345259317</v>
       </c>
       <c r="E37" t="n">
-        <v>3182.297804570348</v>
+        <v>3329.187752068258</v>
       </c>
       <c r="F37" t="n">
         <v>3182.297804570348</v>
@@ -7128,19 +7128,19 @@
         <v>4274.768765573601</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699244</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="V37" t="n">
-        <v>3730.981410493358</v>
+        <v>4020.084277367714</v>
       </c>
       <c r="W37" t="n">
-        <v>3441.564240456397</v>
+        <v>3730.667107330753</v>
       </c>
       <c r="X37" t="n">
-        <v>3351.233987498254</v>
+        <v>3730.667107330753</v>
       </c>
       <c r="Y37" t="n">
-        <v>3351.233987498254</v>
+        <v>3509.874528187223</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7207,16 +7207,16 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
         <v>2760.816196754298</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4168978689405</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1699.182635369335</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258584</v>
+        <v>1410.079768494979</v>
       </c>
       <c r="V40" t="n">
-        <v>1198.376021052697</v>
+        <v>1410.079768494979</v>
       </c>
       <c r="W40" t="n">
-        <v>908.9588510157366</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="X40" t="n">
-        <v>908.9588510157366</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="Y40" t="n">
-        <v>891.0653626991802</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7414,19 +7414,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1472.533259768727</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2006.065164440651</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2985.817436667298</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
         <v>4260.556453353931</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7490,40 +7490,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3002.819529757784</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="C43" t="n">
-        <v>2917.269290763412</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="D43" t="n">
-        <v>2917.269290763412</v>
+        <v>3211.399571127947</v>
       </c>
       <c r="E43" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="F43" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="G43" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="H43" t="n">
         <v>2917.269290763412</v>
@@ -7596,25 +7596,25 @@
         <v>4688.221265177249</v>
       </c>
       <c r="S43" t="n">
-        <v>4688.221265177249</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T43" t="n">
-        <v>4466.454649746775</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U43" t="n">
-        <v>4177.351782872418</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V43" t="n">
-        <v>3922.667294666531</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W43" t="n">
-        <v>3633.250124629571</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X43" t="n">
-        <v>3405.260573731553</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="Y43" t="n">
-        <v>3184.467994588023</v>
+        <v>3213.57468955838</v>
       </c>
     </row>
     <row r="44">
@@ -7657,19 +7657,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3515.905934867957</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4018.878405747294</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2638710736754</v>
+        <v>707.7209910686896</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>538.7848081407827</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.909440164649</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.806573290293</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1220850844059</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W46" t="n">
-        <v>665.7049150474453</v>
+        <v>1117.359006796947</v>
       </c>
       <c r="X46" t="n">
-        <v>665.7049150474453</v>
+        <v>889.3694558989293</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.9123359039152</v>
+        <v>889.3694558989293</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028829</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>185.3870697685873</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>272.8828616575872</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>288.0478149561022</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>285.0508825989983</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>20.70318561718938</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,19 +9646,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>370.4516004729521</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>20.70318561719071</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>36.48628322062211</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>285.0508825989972</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>148.4180109385406</v>
       </c>
       <c r="L29" t="n">
-        <v>57.67224444723735</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>316.9032015413811</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>229.1155640189936</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>316.9032015413812</v>
+        <v>161.8544041422902</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,19 +10831,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>407.312633760658</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>161.8544041422902</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11305,22 +11305,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>57.67224444723649</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.93450923065846</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.196928784763458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>73.85778156328831</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>159.9699069523936</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>69.0300257484316</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>110.579974970516</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>89.39957409014139</v>
       </c>
       <c r="V22" t="n">
-        <v>66.52238423622464</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>113.6142011099682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>36.18759320397865</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>40.49594889674586</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>136.8483693065825</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>141.8612974523308</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>71.52187649453103</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>76.16130118245216</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>152.5209286444569</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>134.8008753874211</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>136.2827049604762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143283</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>53.89187951820182</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>200.870099918704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>82.55208449419982</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4621057720841</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>45.39044159700455</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>151.4581964351358</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838315.4728636291</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838315.4728636292</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="F2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="G2" t="n">
         <v>575768.5909861259</v>
       </c>
-      <c r="G2" t="n">
-        <v>575768.5909861256</v>
-      </c>
       <c r="H2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="I2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="J2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="K2" t="n">
         <v>575768.5909861256</v>
       </c>
       <c r="L2" t="n">
-        <v>575768.5909861254</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="M2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="N2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="O2" t="n">
         <v>575768.5909861258</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.590986126</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.314838945</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="C4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575409</v>
       </c>
       <c r="D4" t="n">
-        <v>197597.7130263734</v>
+        <v>198439.6015575408</v>
       </c>
       <c r="E4" t="n">
-        <v>23732.2045860389</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="F4" t="n">
-        <v>23732.2045860389</v>
+        <v>24062.11227677956</v>
       </c>
       <c r="G4" t="n">
-        <v>23732.20458603891</v>
+        <v>24062.11227677956</v>
       </c>
       <c r="H4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677956</v>
       </c>
       <c r="I4" t="n">
-        <v>23732.2045860389</v>
+        <v>24062.11227677956</v>
       </c>
       <c r="J4" t="n">
-        <v>23732.2045860389</v>
+        <v>24062.11227677955</v>
       </c>
       <c r="K4" t="n">
-        <v>23732.2045860389</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="L4" t="n">
-        <v>23732.20458603879</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="M4" t="n">
-        <v>23732.20458603885</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="N4" t="n">
-        <v>23732.20458603878</v>
+        <v>24062.11227677952</v>
       </c>
       <c r="O4" t="n">
-        <v>23732.20458603889</v>
+        <v>24062.11227677958</v>
       </c>
       <c r="P4" t="n">
-        <v>23732.20458603888</v>
+        <v>24062.11227677956</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275169.3871527228</v>
+        <v>-276011.2756838901</v>
       </c>
       <c r="C6" t="n">
-        <v>314798.492061822</v>
+        <v>313956.6035306543</v>
       </c>
       <c r="D6" t="n">
-        <v>314798.492061822</v>
+        <v>313956.6035306545</v>
       </c>
       <c r="E6" t="n">
-        <v>-271724.5458470338</v>
+        <v>-272054.4535377739</v>
       </c>
       <c r="F6" t="n">
-        <v>455652.8681463733</v>
+        <v>455322.9604556328</v>
       </c>
       <c r="G6" t="n">
-        <v>455652.8681463731</v>
+        <v>455322.9604556327</v>
       </c>
       <c r="H6" t="n">
-        <v>455652.8681463731</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="I6" t="n">
-        <v>455652.8681463731</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="J6" t="n">
-        <v>279229.6489537806</v>
+        <v>278899.7412630394</v>
       </c>
       <c r="K6" t="n">
-        <v>455652.8681463731</v>
+        <v>455322.9604556324</v>
       </c>
       <c r="L6" t="n">
-        <v>455652.868146373</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="M6" t="n">
-        <v>326010.5533074281</v>
+        <v>325680.6456166875</v>
       </c>
       <c r="N6" t="n">
-        <v>455652.8681463731</v>
+        <v>455322.9604556326</v>
       </c>
       <c r="O6" t="n">
-        <v>455652.8681463732</v>
+        <v>455322.9604556325</v>
       </c>
       <c r="P6" t="n">
-        <v>455652.8681463734</v>
+        <v>455322.9604556328</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26761,7 +26761,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>100.427574028464</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>136.8363466755375</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>91.9584066275352</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>102.6727886100651</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>173.465178438411</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>75.65337973659007</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>112.8342462400173</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>232.3486836547029</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>83.76006498676497</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>36.03392876660382</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>164.1606814885715</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>49.80904827649567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32320,10 +32320,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33973,10 +33973,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>581.9206576708328</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>640.9771841609195</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35664,13 +35664,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>671.644847876959</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690137</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
@@ -35904,10 +35904,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,16 +36135,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>793.1038834872174</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>80.31638415941416</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36366,19 +36366,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>909.3727163031789</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.4974904209102</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K26" t="n">
-        <v>373.6775697760225</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>740.6409969913295</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>485.6092974939411</v>
       </c>
       <c r="L29" t="n">
-        <v>513.2623588395693</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>654.0944880967816</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>737.1685649072126</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597769</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>824.9562024296004</v>
+        <v>669.9074050305093</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37551,19 +37551,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>803.4886170813098</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37782,22 +37782,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>862.9027481529902</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>669.9074050305093</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38025,22 +38025,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>456.4342306666084</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1500000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261190.58501189</v>
+        <v>2259700.365562748</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.882709509</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y2" t="n">
-        <v>249.4015919805161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>192.5627265154904</v>
       </c>
       <c r="Y4" t="n">
-        <v>115.9118647420297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>331.2226660051214</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.17431468188809</v>
+        <v>261.9025067912345</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>83.85112090809152</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>313.2070399508092</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.67129869336576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>43.75688320100009</v>
       </c>
       <c r="I13" t="n">
-        <v>5.417911179179632</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.055901306634675</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>55.44583328851225</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>196.8122641154715</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>52.74455946606868</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>82.70057996958667</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>25.38552364629703</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.59371373186862</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>11.63308725914808</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,16 +3480,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>49.27885377856675</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>122.4179473152591</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>165.6570697579674</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.15336724612825</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>135.0648019014552</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.372217881286</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y2" t="n">
-        <v>1762.972057945408</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>352.67413830922</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1310.651480925462</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>941.6889639850508</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>941.6889639850508</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>555.9007113868065</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1697.251320989584</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>268.535689181137</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>268.535689181137</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.535689181137</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,13 +4819,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1346.11282670441</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1346.11282670441</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1346.11282670441</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>290.565155603658</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>290.565155603658</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>69.77257646012785</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
         <v>4667.761053946815</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,64 +5096,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.0634049978502</v>
+        <v>753.6157697891426</v>
       </c>
       <c r="C13" t="n">
-        <v>399.0634049978502</v>
+        <v>584.6795868612357</v>
       </c>
       <c r="D13" t="n">
-        <v>248.9467655855144</v>
+        <v>434.5629474489</v>
       </c>
       <c r="E13" t="n">
-        <v>101.0336720031213</v>
+        <v>286.6498538665069</v>
       </c>
       <c r="F13" t="n">
-        <v>101.0336720031213</v>
+        <v>139.7599063685965</v>
       </c>
       <c r="G13" t="n">
-        <v>101.0336720031213</v>
+        <v>139.7599063685965</v>
       </c>
       <c r="H13" t="n">
-        <v>101.0336720031213</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X13" t="n">
-        <v>619.8559841413803</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.0634049978502</v>
+        <v>935.2642346193824</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
@@ -5278,22 +5278,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3530.568798281487</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679677</v>
@@ -5320,10 +5320,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.8612091800761</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C16" t="n">
-        <v>545.9250262521692</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>395.8083868398335</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>247.8952932574404</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>247.8952932574404</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839441</v>
@@ -5469,19 +5469,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.643339221624</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>935.6537883236062</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.8612091800761</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5518,25 +5518,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5600,7 +5600,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>567.9454261809101</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>399.0092432530032</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>248.8926038406675</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>248.8926038406675</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>248.8926038406675</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1198.376021052697</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>970.38647015468</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>749.5938910111498</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5755,25 +5755,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1650.184003770974</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M20" t="n">
-        <v>2628.734306600803</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>3175.513123659585</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>4055.47777398904</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4450.252140346218</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4698.5385021019</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.8310435707792</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8948606428723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839441</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.946126648453</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1191.261638442566</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.261638442566</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2720875445491</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.479508401019</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2383.057343890768</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3362.809616117415</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.5338801960603</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839441</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1903.066133310695</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1903.066133310695</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1903.066133310695</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1903.066133310695</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1648.381645104808</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.964475067847</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.97492416983</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>910.1823450263</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1518.899775139036</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2497.450077968865</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027647</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.668018147755</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>3605.731835219848</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>3455.615195807512</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>3307.702102225119</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.051722419721</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>4694.515783056502</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>4694.515783056502</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>4694.515783056502</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>4405.098613019542</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>4177.109062121524</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3956.316482977994</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6460,40 +6460,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.7957616486535</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1355.643526557401</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1066.226356520441</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>838.2368056224234</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>617.4442264788933</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1099.399357643587</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1963.918173296941</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2497.450077968866</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3303.405146800852</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>3134.468963872945</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>3134.468963872945</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>2986.555870290552</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>2986.555870290552</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>2986.555870290552</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4364.599222816073</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4075.496355941717</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>3820.81186773583</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>3531.394697698869</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>3303.405146800852</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>3303.405146800852</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6922,43 +6922,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7019,13 +7019,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3509.874528187223</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C37" t="n">
-        <v>3340.938345259317</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D37" t="n">
-        <v>3340.938345259317</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E37" t="n">
-        <v>3329.187752068258</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F37" t="n">
-        <v>3182.297804570348</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G37" t="n">
-        <v>3014.594967945066</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U37" t="n">
-        <v>4274.768765573601</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>4020.084277367714</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W37" t="n">
-        <v>3730.667107330753</v>
+        <v>859.4965341999911</v>
       </c>
       <c r="X37" t="n">
-        <v>3730.667107330753</v>
+        <v>631.5069833019737</v>
       </c>
       <c r="Y37" t="n">
-        <v>3509.874528187223</v>
+        <v>410.7144041584436</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,13 +7159,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442899</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7204,22 +7204,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,7 +7283,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7292,7 +7292,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458018</v>
+        <v>781.8112129900694</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301116</v>
+        <v>612.8750300621625</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177758</v>
+        <v>462.7583906498268</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353827</v>
+        <v>462.7583906498268</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>462.7583906498268</v>
       </c>
       <c r="G40" t="n">
         <v>339.1038984121913</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1699.182635369335</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1410.079768494979</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V40" t="n">
-        <v>1410.079768494979</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W40" t="n">
-        <v>1120.662598458018</v>
+        <v>1412.241807861857</v>
       </c>
       <c r="X40" t="n">
-        <v>1120.662598458018</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y40" t="n">
-        <v>1120.662598458018</v>
+        <v>963.4596778203091</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3213.57468955838</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>3213.57468955838</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>3211.399571127947</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4496.535381004075</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>3985.665898699244</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>3730.981410493358</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>3441.564240456397</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>3213.57468955838</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>3213.57468955838</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,7 +7633,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7645,31 +7645,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216428</v>
       </c>
       <c r="M44" t="n">
-        <v>2536.15366264131</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N44" t="n">
-        <v>3515.905934867957</v>
+        <v>3484.372139114999</v>
       </c>
       <c r="O44" t="n">
-        <v>4018.878405747294</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,7 +7757,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7766,7 +7766,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.7209910686896</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7848081407827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1117.359006796947</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>889.3694558989293</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3694558989293</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,28 +8692,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>29.61882225792135</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
-        <v>272.8828616575872</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>288.0478149561022</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792002</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>20.70318561718938</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>370.4516004729521</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>285.0508825989972</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,10 +10114,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>148.4180109385406</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>316.9032015413811</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>161.8544041422902</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564206</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,22 +10831,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>251.1867816683983</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>161.8544041422902</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,19 +11302,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>89.52456338961679</v>
       </c>
       <c r="P44" t="n">
-        <v>57.67224444723649</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>100.9981317133207</v>
       </c>
       <c r="I13" t="n">
-        <v>90.93450923065846</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>159.9699069523936</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>110.579974970516</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>89.39957409014139</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>36.18759320397865</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>136.8483693065825</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>141.8612974523308</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>76.16130118245216</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>134.8008753874211</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>237.2441445580243</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>43.60786094376908</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>53.89187951820182</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>146.4621057720841</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696571</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696571</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>151.4581964351358</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="F2" t="n">
-        <v>575768.590986126</v>
+        <v>575768.5909861254</v>
       </c>
       <c r="G2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="H2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="I2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="K2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="L2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="M2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="I2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="J2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="K2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>575768.5909861255</v>
       </c>
-      <c r="N2" t="n">
-        <v>575768.5909861258</v>
-      </c>
       <c r="O2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.590986126</v>
+        <v>575768.5909861255</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692037</v>
       </c>
       <c r="C4" t="n">
-        <v>198439.6015575409</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="D4" t="n">
-        <v>198439.6015575408</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="E4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046752</v>
       </c>
       <c r="F4" t="n">
-        <v>24062.11227677956</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="G4" t="n">
-        <v>24062.11227677956</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="H4" t="n">
-        <v>24062.11227677956</v>
+        <v>23726.60550046752</v>
       </c>
       <c r="I4" t="n">
-        <v>24062.11227677956</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="J4" t="n">
-        <v>24062.11227677955</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="K4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="L4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="M4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="N4" t="n">
-        <v>24062.11227677952</v>
+        <v>23726.60550046751</v>
       </c>
       <c r="O4" t="n">
-        <v>24062.11227677958</v>
+        <v>23726.60550046751</v>
       </c>
       <c r="P4" t="n">
-        <v>24062.11227677956</v>
+        <v>23726.60550046751</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26493,13 +26493,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-276011.2756838901</v>
+        <v>-275155.0988955532</v>
       </c>
       <c r="C6" t="n">
-        <v>313956.6035306543</v>
+        <v>314812.7803189916</v>
       </c>
       <c r="D6" t="n">
-        <v>313956.6035306545</v>
+        <v>314812.7803189916</v>
       </c>
       <c r="E6" t="n">
-        <v>-272054.4535377739</v>
+        <v>-272390.90166372</v>
       </c>
       <c r="F6" t="n">
-        <v>455322.9604556328</v>
+        <v>454986.5123296864</v>
       </c>
       <c r="G6" t="n">
-        <v>455322.9604556327</v>
+        <v>454986.5123296867</v>
       </c>
       <c r="H6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296868</v>
       </c>
       <c r="I6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296868</v>
       </c>
       <c r="J6" t="n">
-        <v>278899.7412630394</v>
+        <v>278563.2931370938</v>
       </c>
       <c r="K6" t="n">
-        <v>455322.9604556324</v>
+        <v>454986.512329687</v>
       </c>
       <c r="L6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296868</v>
       </c>
       <c r="M6" t="n">
-        <v>325680.6456166875</v>
+        <v>325344.1974907417</v>
       </c>
       <c r="N6" t="n">
-        <v>455322.9604556326</v>
+        <v>454986.5123296864</v>
       </c>
       <c r="O6" t="n">
-        <v>455322.9604556325</v>
+        <v>454986.5123296868</v>
       </c>
       <c r="P6" t="n">
-        <v>455322.9604556328</v>
+        <v>454986.5123296865</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26761,7 +26761,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26770,16 +26770,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y2" t="n">
-        <v>136.8363466755375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>33.14692887354673</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.6727886100651</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>75.65337973659007</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.3486836547029</v>
+        <v>24.62049154535646</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>240.0716518562656</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>36.03392876660382</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.1606814885715</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32320,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353153</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>581.9206576708328</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
-        <v>671.644847876959</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35895,7 +35895,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>840.3496503690137</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>89.2320208001448</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>80.31638415941416</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>909.3727163031789</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>740.6409969913295</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>485.6092974939411</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>654.0944880967816</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37083,7 +37083,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>669.9074050305093</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N38" t="n">
-        <v>803.4886170813098</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>669.9074050305093</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609563</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>597.5775642778361</v>
       </c>
       <c r="P44" t="n">
-        <v>456.4342306666084</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1500000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Output Files/1500000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2259700.365562748</v>
+        <v>2263105.856687197</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>397.6448304690625</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>192.5627265154904</v>
+        <v>126.5467427872848</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>111.0285509902379</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>208.3423105940811</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>83.85112090809152</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>61.26526235735049</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>30.60408762095452</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>43.75688320100009</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>120.6353666620239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534532</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>170.4435010169016</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>175.9378676796188</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>151.8512960864986</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>13.89072837997162</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>49.27885377856675</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>130.3899231758517</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>122.4179473152591</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744762</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>75.47194501165735</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744762</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1001.804156090968</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1001.804156090968</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>616.0159034927233</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>609.0704027435198</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="3">
@@ -4421,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>533.621179645333</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.621179645333</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718028</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4582,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2584.999039512932</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2584.999039512932</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583422</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5099885583422</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5099885583422</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>159.5099885583422</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>152.5644878091387</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>138.6410837477296</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2635.26498762696</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2304.202100283389</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1951.433445013275</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="11">
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N11" t="n">
-        <v>3195.001976422504</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>753.6157697891426</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C13" t="n">
-        <v>584.6795868612357</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>434.5629474489</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>286.6498538665069</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>139.7599063685965</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>139.7599063685965</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.473983799873</v>
+        <v>1796.967499402969</v>
       </c>
       <c r="W13" t="n">
-        <v>1156.056813762912</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X13" t="n">
-        <v>1156.056813762912</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y13" t="n">
-        <v>935.2642346193824</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5275,7 +5275,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5284,46 +5284,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,22 +5460,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
         <v>498.0020784221642</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5512,55 +5512,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1694.347856319907</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1472.581240889433</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1183.478374015077</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>928.7938858091898</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>639.3767157722291</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>411.3871648742117</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>411.3871648742117</v>
       </c>
     </row>
     <row r="20">
@@ -5743,46 +5743,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622687</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1586.942564073329</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1586.942564073329</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1332.258075867442</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="23">
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -6004,13 +6004,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,10 +6171,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
         <v>1559.196154437386</v>
@@ -6217,13 +6217,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6232,31 +6232,31 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6442,25 +6442,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6478,16 +6478,16 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>658.1567207524339</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>489.220537824527</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>658.1567207524339</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>658.1567207524339</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
         <v>1106.569146563073</v>
@@ -6952,37 +6952,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>410.7144041584436</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>241.7782212305366</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>241.7782212305366</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>241.7782212305366</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258585</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783413</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W37" t="n">
-        <v>859.4965341999911</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X37" t="n">
-        <v>631.5069833019737</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="Y37" t="n">
-        <v>410.7144041584436</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1364.144379432264</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807097</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107236</v>
@@ -7198,10 +7198,10 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.8112129900694</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C40" t="n">
-        <v>612.8750300621625</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>462.7583906498268</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7583906498268</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>462.7583906498268</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7365,19 +7365,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.343466104704</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V40" t="n">
-        <v>1701.658977898817</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W40" t="n">
-        <v>1412.241807861857</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X40" t="n">
-        <v>1184.252256963839</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.4596778203091</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,22 +7396,22 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
         <v>1106.569146563073</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7575,13 +7575,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>570.3166335586867</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216428</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M44" t="n">
         <v>2504.619866888352</v>
       </c>
       <c r="N44" t="n">
-        <v>3484.372139114999</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750057</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>103.7862464855135</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,22 +8932,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>23.80814351663639</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>29.61882225792002</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476828</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>67.53663776704173</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>139.3563597571384</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7011105564206</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10828,19 +10828,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>297.8289162490797</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400235</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476822</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>89.52456338961679</v>
+        <v>89.52456338961838</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>100.9981317133207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23469,19 +23469,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>19.32552431454025</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>43.61108159655043</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>73.8583593025385</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>152.1350798790566</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>237.2441445580243</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>88.19473017624313</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>43.60786094376908</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,7 +25605,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696571</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>143.1127083404375</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696571</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838315.4728636295</v>
+        <v>838315.4728636296</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838315.4728636296</v>
+        <v>838315.4728636295</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861255</v>
       </c>
       <c r="F2" t="n">
-        <v>575768.5909861254</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="G2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="H2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="I2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="J2" t="n">
-        <v>575768.590986126</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="K2" t="n">
-        <v>575768.590986126</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="L2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="M2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="N2" t="n">
         <v>575768.5909861259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="N2" t="n">
-        <v>575768.5909861255</v>
       </c>
       <c r="O2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861256</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197583.4247692037</v>
+        <v>197583.4247692038</v>
       </c>
       <c r="C4" t="n">
         <v>197583.4247692038</v>
       </c>
       <c r="D4" t="n">
-        <v>197583.4247692038</v>
+        <v>197583.4247692037</v>
       </c>
       <c r="E4" t="n">
-        <v>23726.60550046752</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="F4" t="n">
-        <v>23726.60550046753</v>
+        <v>23726.60550046749</v>
       </c>
       <c r="G4" t="n">
-        <v>23726.60550046753</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="H4" t="n">
-        <v>23726.60550046752</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="I4" t="n">
         <v>23726.60550046753</v>
       </c>
       <c r="J4" t="n">
-        <v>23726.60550046753</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="K4" t="n">
-        <v>23726.60550046753</v>
+        <v>23726.60550046754</v>
       </c>
       <c r="L4" t="n">
         <v>23726.60550046753</v>
@@ -26453,13 +26453,13 @@
         <v>23726.60550046753</v>
       </c>
       <c r="N4" t="n">
-        <v>23726.60550046751</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="O4" t="n">
-        <v>23726.60550046751</v>
+        <v>23726.60550046753</v>
       </c>
       <c r="P4" t="n">
-        <v>23726.60550046751</v>
+        <v>23726.60550046753</v>
       </c>
     </row>
     <row r="5">
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275155.0988955532</v>
+        <v>-275155.098895553</v>
       </c>
       <c r="C6" t="n">
         <v>314812.7803189916</v>
       </c>
       <c r="D6" t="n">
-        <v>314812.7803189916</v>
+        <v>314812.7803189917</v>
       </c>
       <c r="E6" t="n">
-        <v>-272390.90166372</v>
+        <v>-271786.1422516881</v>
       </c>
       <c r="F6" t="n">
-        <v>454986.5123296864</v>
+        <v>455591.2717417187</v>
       </c>
       <c r="G6" t="n">
-        <v>454986.5123296867</v>
+        <v>455591.2717417188</v>
       </c>
       <c r="H6" t="n">
-        <v>454986.5123296868</v>
+        <v>455591.2717417187</v>
       </c>
       <c r="I6" t="n">
-        <v>454986.5123296868</v>
+        <v>455591.2717417188</v>
       </c>
       <c r="J6" t="n">
-        <v>278563.2931370938</v>
+        <v>279168.0525491259</v>
       </c>
       <c r="K6" t="n">
-        <v>454986.512329687</v>
+        <v>455591.2717417188</v>
       </c>
       <c r="L6" t="n">
-        <v>454986.5123296868</v>
+        <v>455591.2717417189</v>
       </c>
       <c r="M6" t="n">
-        <v>325344.1974907417</v>
+        <v>325948.9569027739</v>
       </c>
       <c r="N6" t="n">
-        <v>454986.5123296864</v>
+        <v>455591.2717417189</v>
       </c>
       <c r="O6" t="n">
-        <v>454986.5123296868</v>
+        <v>455591.2717417189</v>
       </c>
       <c r="P6" t="n">
-        <v>454986.5123296865</v>
+        <v>455591.2717417186</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26770,16 +26770,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>16.13933955173246</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>33.14692887354673</v>
+        <v>99.16291260175238</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>63.38716181873365</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>24.62049154535646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>10.24234275801371</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>240.0716518562656</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>113.150450451621</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2278925609828</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -31284,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32806,10 +32806,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35427,13 +35427,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>502.5482327048853</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>531.8611444048555</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>674.9245771183485</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>89.2320208001448</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>800.292698040015</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>575.5896386552608</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36609,13 +36609,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>647.4093606453575</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427827</v>
+        <v>753.4190306414118</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282428</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359016</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>597.5775642778361</v>
+        <v>597.5775642778375</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
